--- a/StructureDefinition-profile-PlanDefinition.xlsx
+++ b/StructureDefinition-profile-PlanDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8786305-06:00</t>
+    <t>2026-02-20T11:59:20.918949-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PlanDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PlanDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,36 +443,13 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>PlanDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.versionAlgorithm|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PlanDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Element `PlanDefinition.versionAlgorithm[x]` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>PlanDefinition.extension:subject</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.subject|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.subject}
 </t>
   </si>
   <si>
@@ -487,6 +464,10 @@
 Note that the target element context `PlanDefinition.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition`.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>PlanDefinition.extension:subjectCanonical</t>
   </si>
   <si>
@@ -505,13 +486,51 @@
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/AdministrableProductDefinition,http://hl7.org/fhir/StructureDefinition/EvidenceVariable,http://hl7.org/fhir/StructureDefinition/ManufacturedItemDefinition,http://hl7.org/fhir/StructureDefinition/MedicinalProductDefinition,http://hl7.org/fhir/StructureDefinition/PackagedProductDefinition,http://hl7.org/fhir/StructureDefinition/SubstanceDefinition in FHIR R4</t>
   </si>
   <si>
+    <t>PlanDefinition.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PlanDefinition.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Actors represent the individuals or groups involved in the execution of the defined set of activities.</t>
+  </si>
+  <si>
+    <t>Element `PlanDefinition.actor` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+  </si>
+  <si>
+    <t>PlanDefinition.extension:asNeeded</t>
+  </si>
+  <si>
+    <t>asNeeded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.asNeeded}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for PlanDefinition.asNeeded[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>Element `PlanDefinition.asNeeded[x]` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+  </si>
+  <si>
     <t>PlanDefinition.extension:copyrightLabel</t>
   </si>
   <si>
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
 </t>
   </si>
   <si>
@@ -521,45 +540,28 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.copyrightLabel` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
-  </si>
-  <si>
-    <t>PlanDefinition.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.actor|0.0.1-snapshot-3}
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `PlanDefinition.copyrightLabel` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+  </si>
+  <si>
+    <t>PlanDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for PlanDefinition.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Actors represent the individuals or groups involved in the execution of the defined set of activities.</t>
-  </si>
-  <si>
-    <t>Element `PlanDefinition.actor` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
-  </si>
-  <si>
-    <t>PlanDefinition.extension:asNeeded</t>
-  </si>
-  <si>
-    <t>asNeeded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.asNeeded|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for PlanDefinition.asNeeded[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>Element `PlanDefinition.asNeeded[x]` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Cross-version extension for PlanDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `PlanDefinition.versionAlgorithm[x]` has a context of PlanDefinition based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>PlanDefinition.modifierExtension</t>
@@ -1168,7 +1170,7 @@
     <t>goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.goal|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.goal}
 </t>
   </si>
   <si>
@@ -1377,7 +1379,7 @@
     <t>action</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action}
 </t>
   </si>
   <si>
@@ -2211,7 +2213,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3414,16 +3416,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3502,13 +3504,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -3530,16 +3532,16 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3618,13 +3620,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -3634,7 +3636,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3646,16 +3648,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3866,7 +3868,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3946,7 +3948,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -4062,7 +4064,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>137</v>
